--- a/heartBeat/frame/src/Test/Heartbeat-TestCase.xlsx
+++ b/heartBeat/frame/src/Test/Heartbeat-TestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOC_KI_4\JAVA\JAVAPROJECT\java_IS216.M21_2\heartBeat\frame\src\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{359EA5D8-1BDB-4D65-9F8D-5A0DF4894733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25074CDC-E4A1-47ED-965C-7868B833E46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{1F8B088D-C0C6-504A-BB98-85BBFC1C1935}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{1F8B088D-C0C6-504A-BB98-85BBFC1C1935}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="2" r:id="rId1"/>
@@ -566,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -632,6 +632,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,8 +933,8 @@
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>30481</xdr:rowOff>
     </xdr:to>
@@ -1066,8 +1075,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>24765</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>367665</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -1460,7 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AA4528-365F-4362-9AD2-180952AECC2A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -1472,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9FAB9-292B-4026-914D-BA4F445167BC}">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2117,17 +2126,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>1</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="9">
@@ -2268,7 +2277,7 @@
   <dimension ref="A1:AD62"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2882,17 +2891,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>1</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="9">
@@ -2904,17 +2913,17 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>2</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E39" s="9">
@@ -2926,17 +2935,17 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>3</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="10" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="9">
@@ -3302,13 +3311,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9467DF0-EAA1-4C0C-86B6-DBA673EB7321}">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D37" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" customWidth="1"/>
+    <col min="4" max="4" width="35.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3858,103 +3869,166 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="78" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>1</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+    </row>
+    <row r="39" spans="1:23" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>2</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="1:23" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>3</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="1:23" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>4</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+    </row>
+    <row r="42" spans="1:23" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>5</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+    </row>
+    <row r="43" spans="1:23" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>6</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+    </row>
+    <row r="44" spans="1:23" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>7</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="27" t="s">
         <v>52</v>
       </c>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
@@ -3996,8 +4070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BE2292-35B4-4D51-87A8-CC03D4188393}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4613,246 +4687,246 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>1</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="28">
         <v>44719</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>2</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="28">
         <v>44719</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>3</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>4</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>5</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>6</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>7</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>8</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>9</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>10</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>11</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>12</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>13</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -5069,8 +5143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D6C61C-CCDE-4DFD-9698-42FDD9A6DB52}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5083,7 +5157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42765582-C91A-4B9D-8D2A-97BB7F9BC73F}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5824,15 +5898,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE365D14-565E-4940-9482-FE9981116459}">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="D34" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="4" max="4" width="39.5" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6383,183 +6458,214 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>1</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="28">
         <v>44719</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+    </row>
+    <row r="39" spans="1:23" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>2</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+    </row>
+    <row r="40" spans="1:23" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>3</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+    </row>
+    <row r="41" spans="1:23" ht="78" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>4</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+    </row>
+    <row r="42" spans="1:23" ht="78" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>5</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" spans="1:23" ht="78" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>6</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+    </row>
+    <row r="44" spans="1:23" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>7</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+    </row>
+    <row r="45" spans="1:23" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>8</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+    </row>
+    <row r="46" spans="1:23" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>9</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>10</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
